--- a/result.xlsx
+++ b/result.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans Verkerk\Desktop\GIT\SwitchInterfaceParser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAFE5CA-7829-4803-9DA4-6802D20D9B9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portinfo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Vlaninfo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Portinfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Vlaninfo" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>hostname</t>
   </si>
@@ -295,20 +300,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -324,15 +328,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,20 +633,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -705,33 +736,20 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
       <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s"/>
       <c r="R2" t="s">
         <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -741,33 +759,20 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
       <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
       <c r="Q3" t="s">
         <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -777,33 +782,20 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s"/>
       <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>34</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -813,17 +805,9 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
       <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>12</v>
       </c>
@@ -833,25 +817,17 @@
       <c r="O5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s"/>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>41</v>
       </c>
@@ -861,21 +837,11 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
       <c r="T6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -885,35 +851,23 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
       <c r="N7" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
       </c>
-      <c r="P7" t="s"/>
       <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -923,35 +877,23 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" t="s"/>
       <c r="Q8" t="s">
         <v>34</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -961,17 +903,9 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>23</v>
       </c>
@@ -981,17 +915,14 @@
       <c r="O9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
       </c>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1001,20 +932,9 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s"/>
       <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
       <c r="P10" t="s">
         <v>24</v>
       </c>
@@ -1024,10 +944,8 @@
       <c r="R10" t="s">
         <v>30</v>
       </c>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1037,87 +955,39 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
       </c>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
       <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1127,115 +997,50 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
       <c r="P14" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" t="s"/>
       <c r="R14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
       <c r="K15" t="s">
         <v>10</v>
       </c>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
       <c r="K16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s"/>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
       <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1245,35 +1050,23 @@
       <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
       <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
       <c r="N18" t="s">
         <v>37</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
       </c>
-      <c r="P18" t="s"/>
       <c r="Q18" t="s">
         <v>29</v>
       </c>
       <c r="R18" t="s">
         <v>30</v>
       </c>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1283,31 +1076,17 @@
       <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
       <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
       <c r="Q19" t="s">
         <v>34</v>
       </c>
       <c r="R19" t="s">
         <v>30</v>
       </c>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1317,31 +1096,17 @@
       <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
       <c r="Q20" t="s">
         <v>39</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
       </c>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1354,49 +1119,45 @@
       <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s"/>
       <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
       <c r="P21" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" t="s"/>
       <c r="R21" t="s">
         <v>23</v>
       </c>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1202,6 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s"/>
       <c r="E2" t="s">
         <v>81</v>
       </c>
@@ -1451,16 +1211,14 @@
       <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s"/>
       <c r="K2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1476,16 +1234,11 @@
       <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
       <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1495,16 +1248,8 @@
       <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1514,57 +1259,37 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans Verkerk\Desktop\GIT\SwitchInterfaceParser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAFE5CA-7829-4803-9DA4-6802D20D9B9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Portinfo" sheetId="1" r:id="rId1"/>
-    <sheet name="Vlaninfo" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Portinfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vlaninfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>hostname</t>
   </si>
@@ -204,12 +199,18 @@
     <t>TO Server8</t>
   </si>
   <si>
+    <t>GigabitEthernet1/1/1</t>
+  </si>
+  <si>
     <t>GigabitEthernet1/1/2</t>
   </si>
   <si>
     <t>GigabitEthernet1/1/3</t>
   </si>
   <si>
+    <t>GigabitEthernet1/1/4</t>
+  </si>
+  <si>
     <t>TenGigabitEthernet1/1/1</t>
   </si>
   <si>
@@ -243,7 +244,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>vlan_id</t>
+    <t>vlanindex</t>
   </si>
   <si>
     <t>name</t>
@@ -267,6 +268,21 @@
     <t>Ten</t>
   </si>
   <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Twelfe</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>10 in</t>
+  </si>
+  <si>
     <t>1.2.3.4 255.255.255.0</t>
   </si>
   <si>
@@ -276,43 +292,29 @@
     <t xml:space="preserve"> no ip proxy arp</t>
   </si>
   <si>
+    <t xml:space="preserve"> no ip redirects</t>
+  </si>
+  <si>
     <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
-  </si>
-  <si>
-    <t>Eleven</t>
-  </si>
-  <si>
-    <t>10 in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no ip redirects</t>
-  </si>
-  <si>
-    <t>Twelfe</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Thirteen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -328,24 +330,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -633,38 +626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -736,20 +711,33 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
       <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s">
         <v>24</v>
       </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s">
         <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" t="s"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -759,20 +747,33 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
       <c r="J3" t="s">
         <v>28</v>
       </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s">
         <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -782,20 +783,33 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>28</v>
       </c>
+      <c r="K4" t="s"/>
       <c r="L4" t="s">
         <v>33</v>
       </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>34</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -805,9 +819,17 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
       <c r="J5" t="s">
         <v>28</v>
       </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>12</v>
       </c>
@@ -817,17 +839,25 @@
       <c r="O5" t="s">
         <v>38</v>
       </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>41</v>
       </c>
@@ -837,11 +867,21 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -851,23 +891,35 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>47</v>
       </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
       <c r="N7" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
       </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -877,23 +929,35 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>51</v>
       </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
       </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s">
         <v>34</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -903,9 +967,17 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>54</v>
       </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>23</v>
       </c>
@@ -915,14 +987,17 @@
       <c r="O9" t="s">
         <v>48</v>
       </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -932,9 +1007,20 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
+      <c r="D10" t="s"/>
       <c r="E10" t="s">
         <v>57</v>
       </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s">
         <v>24</v>
       </c>
@@ -944,8 +1030,10 @@
       <c r="R10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -955,158 +1043,295 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
       </c>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s">
         <v>24</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
       <c r="K17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="N18" t="s">
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O20" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s">
         <v>29</v>
-      </c>
-      <c r="R18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>39</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1114,73 +1339,145 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s">
         <v>24</v>
       </c>
-      <c r="R21" t="s">
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s">
         <v>23</v>
       </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1189,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1497,18 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1226,19 +1516,18 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1246,50 +1535,71 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -268,9 +268,27 @@
     <t>Ten</t>
   </si>
   <si>
+    <t>1.2.3.4 255.255.255.0</t>
+  </si>
+  <si>
+    <t>3.3.3.3,4.4.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no ip proxy arp</t>
+  </si>
+  <si>
+    <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
+  </si>
+  <si>
     <t>Eleven</t>
   </si>
   <si>
+    <t>10 in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no ip redirects</t>
+  </si>
+  <si>
     <t>Twelfe</t>
   </si>
   <si>
@@ -278,24 +296,6 @@
   </si>
   <si>
     <t>Thirteen</t>
-  </si>
-  <si>
-    <t>10 in</t>
-  </si>
-  <si>
-    <t>1.2.3.4 255.255.255.0</t>
-  </si>
-  <si>
-    <t>3.3.3.3,4.4.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no ip proxy arp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no ip redirects</t>
-  </si>
-  <si>
-    <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,13 +1500,23 @@
         <v>82</v>
       </c>
       <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
       <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1516,13 +1526,19 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
@@ -1535,7 +1551,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
@@ -1551,35 +1567,42 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
+      <c r="K6" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans Verkerk\Desktop\GIT\SwitchInterfaceParser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C87231-1AE1-4D2B-9C48-8468682C42C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portinfo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Vlaninfo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Portinfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Vlaninfo" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>hostname</t>
   </si>
@@ -265,9 +270,6 @@
     <t>standby</t>
   </si>
   <si>
-    <t>Ten</t>
-  </si>
-  <si>
     <t>1.2.3.4 255.255.255.0</t>
   </si>
   <si>
@@ -280,41 +282,31 @@
     <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
   </si>
   <si>
-    <t>Eleven</t>
-  </si>
-  <si>
     <t>10 in</t>
   </si>
   <si>
     <t xml:space="preserve"> no ip redirects</t>
   </si>
   <si>
-    <t>Twelfe</t>
-  </si>
-  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>Thirteen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -330,15 +322,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -626,20 +627,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -711,33 +730,20 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
       <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s"/>
       <c r="R2" t="s">
         <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -747,33 +753,20 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
       <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
       <c r="Q3" t="s">
         <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -783,33 +776,20 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s"/>
       <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>34</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -819,17 +799,9 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
       <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>12</v>
       </c>
@@ -839,25 +811,17 @@
       <c r="O5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s"/>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>41</v>
       </c>
@@ -867,21 +831,11 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
       <c r="T6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -891,35 +845,23 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
       <c r="N7" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
       </c>
-      <c r="P7" t="s"/>
       <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -929,35 +871,23 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" t="s"/>
       <c r="Q8" t="s">
         <v>34</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -967,17 +897,9 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>23</v>
       </c>
@@ -987,17 +909,14 @@
       <c r="O9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
       </c>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1007,20 +926,9 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s"/>
       <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
       <c r="P10" t="s">
         <v>24</v>
       </c>
@@ -1030,10 +938,8 @@
       <c r="R10" t="s">
         <v>30</v>
       </c>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1043,139 +949,55 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
       </c>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
       <c r="K14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1185,115 +1007,50 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
       <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
       <c r="P16" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" t="s"/>
       <c r="R16" t="s">
         <v>23</v>
       </c>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s"/>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
       <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
       <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
       <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1303,35 +1060,23 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
       <c r="N20" t="s">
         <v>37</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
-      <c r="P20" t="s"/>
       <c r="Q20" t="s">
         <v>29</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
       </c>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1341,31 +1086,17 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
       <c r="F21" t="s">
         <v>51</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
       <c r="Q21" t="s">
         <v>34</v>
       </c>
       <c r="R21" t="s">
         <v>30</v>
       </c>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1375,31 +1106,17 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
       <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
       <c r="Q22" t="s">
         <v>39</v>
       </c>
       <c r="R22" t="s">
         <v>30</v>
       </c>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1412,49 +1129,45 @@
       <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s"/>
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
       <c r="P23" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" t="s"/>
       <c r="R23" t="s">
         <v>23</v>
       </c>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1489,140 +1202,92 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s"/>
       <c r="K2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans Verkerk\Desktop\GIT\SwitchInterfaceParser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C87231-1AE1-4D2B-9C48-8468682C42C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Portinfo" sheetId="1" r:id="rId1"/>
-    <sheet name="Vlaninfo" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Portinfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vlaninfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>hostname</t>
   </si>
@@ -270,6 +265,9 @@
     <t>standby</t>
   </si>
   <si>
+    <t>Ten</t>
+  </si>
+  <si>
     <t>1.2.3.4 255.255.255.0</t>
   </si>
   <si>
@@ -282,31 +280,41 @@
     <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
   </si>
   <si>
+    <t>Eleven</t>
+  </si>
+  <si>
     <t>10 in</t>
   </si>
   <si>
     <t xml:space="preserve"> no ip redirects</t>
   </si>
   <si>
+    <t>Twelfe</t>
+  </si>
+  <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -322,24 +330,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -627,38 +626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -730,20 +711,33 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
       <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s">
         <v>24</v>
       </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s">
         <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" t="s"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -753,20 +747,33 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
       <c r="J3" t="s">
         <v>28</v>
       </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s">
         <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -776,20 +783,33 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>28</v>
       </c>
+      <c r="K4" t="s"/>
       <c r="L4" t="s">
         <v>33</v>
       </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>34</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -799,9 +819,17 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
       <c r="J5" t="s">
         <v>28</v>
       </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>12</v>
       </c>
@@ -811,17 +839,25 @@
       <c r="O5" t="s">
         <v>38</v>
       </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>41</v>
       </c>
@@ -831,11 +867,21 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -845,23 +891,35 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>47</v>
       </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
       <c r="N7" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
       </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -871,23 +929,35 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>51</v>
       </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
       </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s">
         <v>34</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -897,9 +967,17 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>54</v>
       </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>23</v>
       </c>
@@ -909,14 +987,17 @@
       <c r="O9" t="s">
         <v>48</v>
       </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -926,9 +1007,20 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
+      <c r="D10" t="s"/>
       <c r="E10" t="s">
         <v>57</v>
       </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s">
         <v>24</v>
       </c>
@@ -938,8 +1030,10 @@
       <c r="R10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -949,55 +1043,139 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
       </c>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
       <c r="K14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1007,50 +1185,115 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="s">
         <v>65</v>
       </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s">
         <v>24</v>
       </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
       <c r="K17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
       <c r="K18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
       <c r="K19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1060,23 +1303,35 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>47</v>
       </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
       <c r="N20" t="s">
         <v>37</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s">
         <v>29</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1086,17 +1341,31 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="s">
         <v>51</v>
       </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s">
         <v>34</v>
       </c>
       <c r="R21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1106,17 +1375,31 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="s">
         <v>54</v>
       </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s">
         <v>39</v>
       </c>
       <c r="R22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1129,45 +1412,49 @@
       <c r="D23" t="s">
         <v>74</v>
       </c>
+      <c r="E23" t="s"/>
       <c r="F23" t="s">
         <v>65</v>
       </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s">
         <v>24</v>
       </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s">
         <v>23</v>
       </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,92 +1489,140 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>42</v>
       </c>
+      <c r="J2" t="s"/>
       <c r="K2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
       <c r="E6" t="s">
         <v>41</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
+      <c r="K6" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,70 +456,95 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>ip access-group</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>ip address</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ip helper-address</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ip proxy arp</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ip redirects</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>ip route-cache</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>negotiation</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>port-channel standalone-disable</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>shutdown</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>spanning-tree bpdufilter</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>spanning-tree portfast</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>standby</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>storm-control action</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>storm-control broadcast level</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>switchport</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>switchport access vlan</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>switchport mode</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>vlan_allow_list</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>vrf forwarding</t>
         </is>
@@ -550,30 +575,35 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>trunk</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t>nonegotiate</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>10,11,12,13,14</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -597,33 +627,38 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no port-channel standalone-disable</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spanning-tree portfast</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no port-channel standalone-disable</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+          <t>spanning-tree portfast</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -647,33 +682,38 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve"> no port-channel standalone-disable</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>enable</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -697,37 +737,42 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no port-channel standalone-disable</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spanning-tree portfast</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>trap</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> no port-channel standalone-disable</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>spanning-tree portfast</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>trap</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -744,32 +789,37 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> no ip address</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip route-cache</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip route-cache</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Mgmt-vrf</t>
         </is>
@@ -805,29 +855,34 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>trap</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -859,29 +914,34 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
         <is>
           <t>trap</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -912,34 +972,39 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>trunk</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>trap</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>trap</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -973,23 +1038,28 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>nonegotiate</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>nonegotiate</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1016,26 +1086,31 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>spanning-tree portfast</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+          <t>spanning-tree portfast</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1066,6 +1141,11 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1086,20 +1166,25 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1120,20 +1205,25 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1164,6 +1254,11 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1197,19 +1292,24 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>nonegotiate</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>trunk</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>nonegotiate</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1230,20 +1330,25 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1264,20 +1369,25 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1298,20 +1408,25 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1343,29 +1458,34 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
         <is>
           <t>trap</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1400,18 +1520,23 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1446,18 +1571,23 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1495,19 +1625,173 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>nonegotiate</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>trunk</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>nonegotiate</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TestSwitch</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vlan1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip address</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip route-cache</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>shutdown</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TestSwitch</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vlan10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.2.3.4 255.255.255.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3.3.3.3,4.4.4.4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip proxy arp</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip route-cache</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TestSwitch</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vlan11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10 in</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.2.3.4 255.255.255.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> no ip redirects</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1520,7 +1804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,46 +1828,6 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ip access-group</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ip address</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ip helper-address</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ip proxy arp</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ip redirects</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ip route-cache</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>standby</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1596,33 +1840,9 @@
           <t>10</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.2.3.4 255.255.255.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.3.3.3,4.4.4.4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip proxy arp</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip route-cache</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1 ip 1.2.3.123,1 prio 105,1 preempt,1 track 1 decrement 5</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ten</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1857,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10 in</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.2.3.4 255.255.255.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip redirects</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Eleven</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1675,14 +1879,6 @@
           <t>Twelfe</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1700,47 +1896,6 @@
           <t>Thirteen</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TestSwitch</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip address</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no ip route-cache</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>shutdown</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
